--- a/阶段提交/2.需求分析阶段/需求分析.xlsx
+++ b/阶段提交/2.需求分析阶段/需求分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>SRS-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,45 @@
   <si>
     <t>服务端返回探针设备的运行状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-002</t>
+  </si>
+  <si>
+    <t>已注册过的用户进行账号登陆</t>
+  </si>
+  <si>
+    <t>尚未完成，开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对wifi探针的控制</t>
+  </si>
+  <si>
+    <t>用户登录后对探针设备进行在线远程控制，包括关机，重启等</t>
+  </si>
+  <si>
+    <t>SRS-005</t>
+  </si>
+  <si>
+    <t>查看实时数据、图表</t>
+  </si>
+  <si>
+    <t>登陆后的用户查看数据以及图表</t>
+  </si>
+  <si>
+    <t>展示探针设备的状态</t>
+  </si>
+  <si>
+    <t>登陆后的用户查看探针设备的状态</t>
   </si>
 </sst>
 </file>
@@ -415,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,55 +464,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,447 +813,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="49.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="59.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="55.08984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="23.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="59.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="106" customHeight="1" thickTop="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="12">
         <v>1</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="128" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="106.5" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="63" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="33.5" thickBot="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="142" customHeight="1" thickTop="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="101" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="58" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="66" customHeight="1" thickTop="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="41" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="44" customHeight="1" thickTop="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="46" customHeight="1" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="81.5" customHeight="1" thickTop="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="33">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="5"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="66">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="33">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="5"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="5"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="33">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="5"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="59.5" customHeight="1" thickBot="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="5"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="32.5" customHeight="1" thickTop="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -1226,119 +1268,383 @@
       <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="14" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="14" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="14" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="14" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="14" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="14" customHeight="1">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" ht="14" customHeight="1">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5">
-      <c r="A34" s="12"/>
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="14" customHeight="1">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5">
+      <c r="A34" s="7"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="16.5">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="16.5">
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="1:5" ht="16.5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="16.5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.5">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="1"/>
+    <row r="38" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" thickTop="1">
+      <c r="A39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.5" customHeight="1" thickTop="1">
+      <c r="A44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="14" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.5" thickTop="1">
+      <c r="A49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.5" thickTop="1">
+      <c r="A54" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="15"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="15"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.5" thickTop="1">
+      <c r="A59" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.5" thickBot="1">
+      <c r="A63" s="15"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.5" thickTop="1">
+      <c r="A64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="15"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="15"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="15"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="H15:H24"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="G15:G24"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C15:C24"/>
-    <mergeCell ref="E15:E24"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
+  <mergeCells count="64">
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
@@ -1350,6 +1656,29 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="G15:G24"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="H15:H24"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
